--- a/PC - Melphis/Practica 1 Microeconomía/Practica 1 Microeconomía/Tabla_3.xlsx
+++ b/PC - Melphis/Practica 1 Microeconomía/Practica 1 Microeconomía/Tabla_3.xlsx
@@ -504,7 +504,9 @@
       <c r="A2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
         <v>100</v>
@@ -512,14 +514,18 @@
       <c r="E2" t="n">
         <v>0</v>
       </c>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>100</v>
+      </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
+      <c r="M2" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -528,7 +534,9 @@
       <c r="B3" t="n">
         <v>110</v>
       </c>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" t="n">
+        <v>110</v>
+      </c>
       <c r="D3" t="n">
         <v>100</v>
       </c>
@@ -547,11 +555,13 @@
       <c r="I3" t="n">
         <v>60.5</v>
       </c>
-      <c r="J3" t="n">
-        <v>160.5</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>60.5</v>
+      </c>
+      <c r="L3" t="n">
+        <v>49.5</v>
+      </c>
       <c r="M3" t="n">
         <v>-50.5</v>
       </c>
@@ -584,9 +594,7 @@
       <c r="I4" t="n">
         <v>57.1</v>
       </c>
-      <c r="J4" t="n">
-        <v>107.1</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="n">
         <v>53.7</v>
       </c>
@@ -625,9 +633,7 @@
       <c r="I5" t="n">
         <v>54.83</v>
       </c>
-      <c r="J5" t="n">
-        <v>88.17</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="n">
         <v>50.3</v>
       </c>
@@ -666,9 +672,7 @@
       <c r="I6" t="n">
         <v>54.85</v>
       </c>
-      <c r="J6" t="n">
-        <v>79.84999999999999</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="n">
         <v>54.9</v>
       </c>
@@ -707,9 +711,7 @@
       <c r="I7" t="n">
         <v>55.84</v>
       </c>
-      <c r="J7" t="n">
-        <v>75.84</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
         <v>59.8</v>
       </c>
@@ -748,9 +750,7 @@
       <c r="I8" t="n">
         <v>58.12</v>
       </c>
-      <c r="J8" t="n">
-        <v>74.78</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="n">
         <v>69.5</v>
       </c>
@@ -789,9 +789,7 @@
       <c r="I9" t="n">
         <v>62.16</v>
       </c>
-      <c r="J9" t="n">
-        <v>76.44</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="n">
         <v>86.40000000000001</v>
       </c>
@@ -830,9 +828,7 @@
       <c r="I10" t="n">
         <v>68.04000000000001</v>
       </c>
-      <c r="J10" t="n">
-        <v>80.54000000000001</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
         <v>109.2</v>
       </c>
@@ -871,9 +867,7 @@
       <c r="I11" t="n">
         <v>74.81999999999999</v>
       </c>
-      <c r="J11" t="n">
-        <v>85.93000000000001</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">
         <v>129.1</v>
       </c>
@@ -912,9 +906,7 @@
       <c r="I12" t="n">
         <v>83.40000000000001</v>
       </c>
-      <c r="J12" t="n">
-        <v>93.40000000000001</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
         <v>160.6</v>
       </c>
@@ -953,9 +945,7 @@
       <c r="I13" t="n">
         <v>93.15000000000001</v>
       </c>
-      <c r="J13" t="n">
-        <v>102.25</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
         <v>190.7</v>
       </c>
@@ -994,9 +984,7 @@
       <c r="I14" t="n">
         <v>104.62</v>
       </c>
-      <c r="J14" t="n">
-        <v>112.96</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="n">
         <v>230.8</v>
       </c>
